--- a/SC/SC_data.xlsx
+++ b/SC/SC_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="250">
   <si>
     <t>ALUTs</t>
   </si>
@@ -835,7 +835,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b+27:45asic(not_use_pmem)</t>
+    <t>ul16_1_cu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ul32_1_cu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic_no_pmem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1293,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -1879,8 +1887,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>13</v>
+      <c r="A20" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>183</v>
@@ -1915,8 +1923,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
-        <v>14</v>
+      <c r="A21" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>198</v>
@@ -1998,7 +2006,7 @@
     </row>
     <row r="27" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="1">

--- a/SC/SC_data.xlsx
+++ b/SC/SC_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="254">
   <si>
     <t>ALUTs</t>
   </si>
@@ -845,6 +845,20 @@
   <si>
     <t>basic_no_pmem</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,619 / 427,200 ( 9 % )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,993,744 / 55,562,240 ( 4 % )</t>
+  </si>
+  <si>
+    <t>228 / 2,713 ( 8 % )</t>
   </si>
 </sst>
 </file>
@@ -854,7 +868,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -895,6 +909,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -955,7 +975,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1018,6 +1038,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1299,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:XFD74"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2004,894 +2036,889 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="1">
-        <v>57076</v>
-      </c>
-      <c r="D27" s="8">
-        <v>69886</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I27" s="17">
-        <v>395</v>
-      </c>
-      <c r="J27" s="1">
-        <v>15.657</v>
-      </c>
-      <c r="K27" s="11">
-        <f t="shared" ref="K27:K60" si="1">MMULT(I27,J27)*1000</f>
-        <v>6184515</v>
-      </c>
-      <c r="N27" s="11"/>
+    <row r="27" spans="1:14" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="21">
+        <v>44887</v>
+      </c>
+      <c r="D27" s="22">
+        <v>53978</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="I27" s="23">
+        <v>412.5</v>
+      </c>
+      <c r="J27" s="21">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="K27" s="24">
+        <f>MMULT(I27,J27)*1000</f>
+        <v>23512.5</v>
+      </c>
     </row>
     <row r="28" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="1">
+        <v>57076</v>
+      </c>
+      <c r="D28" s="8">
+        <v>69886</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="17">
+        <v>395</v>
+      </c>
+      <c r="J28" s="1">
+        <v>15.657</v>
+      </c>
+      <c r="K28" s="11">
+        <f t="shared" ref="K27:K61" si="1">MMULT(I28,J28)*1000</f>
+        <v>6184515</v>
+      </c>
+      <c r="N28" s="11"/>
+    </row>
+    <row r="29" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C29" s="1">
         <v>55011</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D29" s="8">
         <v>68520</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="F29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I29" s="17">
         <v>171.875</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J29" s="1">
         <v>1.714</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K29" s="11">
         <f t="shared" si="1"/>
         <v>294593.75</v>
       </c>
-      <c r="N28" s="11"/>
-    </row>
-    <row r="29" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
+      <c r="L29" s="11">
+        <f>K29-K27</f>
+        <v>271081.25</v>
+      </c>
+      <c r="N29" s="11"/>
+    </row>
+    <row r="30" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C30" s="1">
         <v>55598</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D30" s="8">
         <v>69448</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I30" s="17">
         <v>171.666666666</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J30" s="1">
         <v>1.0409999999999999</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K30" s="11">
         <f t="shared" si="1"/>
         <v>178704.99999930599</v>
       </c>
-      <c r="N29" s="11"/>
-    </row>
-    <row r="30" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C31" s="1">
         <v>59169</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D31" s="8">
         <v>74879</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="F31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I31" s="17">
         <v>261.66666666700002</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J31" s="1">
         <v>8.6829999999999998</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K31" s="11">
         <f t="shared" si="1"/>
         <v>2272051.6666695611</v>
       </c>
-      <c r="N30" s="11"/>
-    </row>
-    <row r="31" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C32" s="1">
         <v>71328</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D32" s="8">
         <v>85229</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="F32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I32" s="17">
         <v>283.33333333299998</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J32" s="1">
         <v>15.12</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K32" s="11">
         <f t="shared" si="1"/>
         <v>4283999.9999949597</v>
       </c>
-      <c r="N31" s="11"/>
-    </row>
-    <row r="32" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
+      <c r="N32" s="11"/>
+    </row>
+    <row r="33" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C33" s="1">
         <v>56444</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D33" s="8">
         <v>70469</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="F33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I33" s="17">
         <v>169.444444444</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J33" s="1">
         <v>0.98599999999999999</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K33" s="11">
         <f t="shared" si="1"/>
         <v>167072.222221784</v>
       </c>
-      <c r="N32" s="11"/>
-    </row>
-    <row r="33" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
+      <c r="N33" s="11"/>
+    </row>
+    <row r="34" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C34" s="1">
         <v>58957</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D34" s="8">
         <v>75595</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="F34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I34" s="17">
         <v>160</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J34" s="1">
         <v>0.96699999999999997</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K34" s="11">
         <f t="shared" si="1"/>
         <v>154720</v>
       </c>
-      <c r="N33" s="11"/>
-    </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C35" s="1">
         <v>65399</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D35" s="8">
         <v>83684</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" s="1" t="s">
+      <c r="F35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I35" s="17">
         <v>156.25</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J35" s="1">
         <v>1.0109999999999999</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K35" s="11">
         <f t="shared" si="1"/>
         <v>157968.74999999997</v>
       </c>
-      <c r="N34" s="11"/>
-    </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
+      <c r="N35" s="11"/>
+    </row>
+    <row r="36" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C36" s="1">
         <v>75837</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D36" s="8">
         <v>97480</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="F36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I36" s="17">
         <v>148.333333334</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J36" s="1">
         <v>1.04</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K36" s="11">
         <f t="shared" si="1"/>
         <v>154266.66666736</v>
       </c>
-      <c r="N35" s="11"/>
-    </row>
-    <row r="36" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
+      <c r="N36" s="11"/>
+    </row>
+    <row r="37" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C37" s="1">
         <v>94606</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D37" s="8">
         <v>125383</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="F37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I37" s="17">
         <v>159.375</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J37" s="1">
         <v>0.98399999999999999</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K37" s="11">
         <f t="shared" si="1"/>
         <v>156825</v>
       </c>
-      <c r="N36" s="11"/>
-    </row>
-    <row r="37" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
+      <c r="N37" s="11"/>
+    </row>
+    <row r="38" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C38" s="1">
         <v>136202</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D38" s="8">
         <v>181347</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="F38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I38" s="17">
         <v>129.6875</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J38" s="1">
         <v>1.198</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K38" s="11">
         <f t="shared" si="1"/>
         <v>155365.625</v>
       </c>
-      <c r="N37" s="11"/>
-    </row>
-    <row r="38" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
+      <c r="N38" s="11"/>
+    </row>
+    <row r="39" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C39" s="1">
         <v>55199</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D39" s="8">
         <v>68980</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="F39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I39" s="17">
         <v>254.166666666</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J39" s="1">
         <v>2.2930000000000001</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K39" s="11">
         <f t="shared" si="1"/>
         <v>582804.16666513809</v>
       </c>
-      <c r="N38" s="11"/>
-    </row>
-    <row r="39" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C40" s="1">
         <v>55201</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D40" s="8">
         <v>68991</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="F40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I40" s="17">
         <v>253.333333334</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J40" s="1">
         <v>1.8240000000000001</v>
       </c>
-      <c r="K39" s="11">
+      <c r="K40" s="11">
         <f t="shared" si="1"/>
         <v>462080.00000121602</v>
       </c>
-      <c r="N39" s="11"/>
-    </row>
-    <row r="40" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
+      <c r="N40" s="11"/>
+    </row>
+    <row r="41" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C41" s="1">
         <v>55295</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D41" s="8">
         <v>69153</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G40" s="1" t="s">
+      <c r="F41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I41" s="17">
         <v>260</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J41" s="1">
         <v>1.4910000000000001</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K41" s="11">
         <f t="shared" si="1"/>
         <v>387660</v>
       </c>
-      <c r="N40" s="11"/>
-    </row>
-    <row r="41" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
+      <c r="N41" s="11"/>
+    </row>
+    <row r="42" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C42" s="1">
         <v>55306</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D42" s="8">
         <v>69168</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G41" s="1" t="s">
+      <c r="F42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I42" s="17">
         <v>258.33333333299998</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J42" s="1">
         <v>1.2390000000000001</v>
       </c>
-      <c r="K41" s="11">
+      <c r="K42" s="11">
         <f t="shared" si="1"/>
         <v>320074.99999958702</v>
       </c>
-      <c r="N41" s="11"/>
-    </row>
-    <row r="42" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
+      <c r="N42" s="11"/>
+    </row>
+    <row r="43" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C43" s="1">
         <v>55310</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D43" s="8">
         <v>69182</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G42" s="1" t="s">
+      <c r="F43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I43" s="17">
         <v>256.66666666700002</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J43" s="1">
         <v>1.1519999999999999</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K43" s="11">
         <f t="shared" si="1"/>
         <v>295680.000000384</v>
       </c>
-      <c r="N42" s="11"/>
-    </row>
-    <row r="43" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
+      <c r="N43" s="11"/>
+    </row>
+    <row r="44" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C44" s="1">
         <v>55320</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D44" s="8">
         <v>69197</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G43" s="1" t="s">
+      <c r="F44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I44" s="17">
         <v>252.777777778</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J44" s="1">
         <v>1.08</v>
       </c>
-      <c r="K43" s="11">
+      <c r="K44" s="11">
         <f t="shared" si="1"/>
         <v>273000.00000023999</v>
       </c>
-      <c r="N43" s="11"/>
-    </row>
-    <row r="44" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
+      <c r="N44" s="11"/>
+    </row>
+    <row r="45" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C45" s="1">
         <v>55330</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D45" s="8">
         <v>69212</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G44" s="1" t="s">
+      <c r="F45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I45" s="17">
         <v>248.333333334</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J45" s="1">
         <v>1.0680000000000001</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K45" s="11">
         <f t="shared" si="1"/>
         <v>265220.000000712</v>
       </c>
-      <c r="N44" s="11"/>
-    </row>
-    <row r="45" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
+      <c r="N45" s="11"/>
+    </row>
+    <row r="46" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C46" s="1">
         <v>55335</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D46" s="8">
         <v>69227</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G45" s="1" t="s">
+      <c r="F46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I46" s="17">
         <v>256.66666666700002</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J46" s="1">
         <v>1.0309999999999999</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K46" s="11">
         <f t="shared" si="1"/>
         <v>264623.33333367703</v>
       </c>
-      <c r="N45" s="11"/>
-    </row>
-    <row r="46" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
+      <c r="N46" s="11"/>
+    </row>
+    <row r="47" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C47" s="1">
         <v>55342</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D47" s="8">
         <v>69242</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G46" s="1" t="s">
+      <c r="F47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I47" s="17">
         <v>240.625</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J47" s="1">
         <v>1.0740000000000001</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K47" s="11">
         <f t="shared" si="1"/>
         <v>258431.25000000003</v>
       </c>
-      <c r="N46" s="11"/>
-    </row>
-    <row r="47" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
+      <c r="N47" s="11"/>
+    </row>
+    <row r="48" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C48" s="1">
         <v>55351</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D48" s="8">
         <v>69257</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G47" s="1" t="s">
+      <c r="F48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I48" s="17">
         <v>231.666666666</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J48" s="1">
         <v>1.093</v>
       </c>
-      <c r="K47" s="11">
+      <c r="K48" s="11">
         <f t="shared" si="1"/>
         <v>253211.66666593798</v>
       </c>
-      <c r="N47" s="11"/>
-    </row>
-    <row r="48" spans="1:14" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
+      <c r="N48" s="11"/>
+    </row>
+    <row r="49" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C49" s="1">
         <v>55401</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D49" s="8">
         <v>69275</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G48" s="1" t="s">
+      <c r="F49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I49" s="17">
         <v>206.666666666</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J49" s="1">
         <v>1.2330000000000001</v>
       </c>
-      <c r="K48" s="11">
+      <c r="K49" s="11">
         <f t="shared" si="1"/>
         <v>254819.99999917802</v>
       </c>
-      <c r="N48" s="11"/>
-    </row>
-    <row r="49" spans="1:17" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
+      <c r="N49" s="11"/>
+    </row>
+    <row r="50" spans="1:17" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C50" s="1">
         <v>55451</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D50" s="8">
         <v>69291</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F49" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G49" s="1" t="s">
+      <c r="F50" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I50" s="17">
         <v>168.75</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J50" s="1">
         <v>1.478</v>
       </c>
-      <c r="K49" s="11">
+      <c r="K50" s="11">
         <f t="shared" si="1"/>
         <v>249412.5</v>
-      </c>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-    </row>
-    <row r="50" spans="1:17" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C50" s="1">
-        <v>91860</v>
-      </c>
-      <c r="D50" s="8">
-        <v>103420</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I50" s="17">
-        <v>257.5</v>
-      </c>
-      <c r="J50" s="1">
-        <v>16.645</v>
-      </c>
-      <c r="K50" s="11">
-        <f t="shared" si="1"/>
-        <v>4286087.5</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -2902,38 +2929,38 @@
     </row>
     <row r="51" spans="1:17" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>204</v>
       </c>
       <c r="C51" s="1">
-        <v>59864</v>
+        <v>91860</v>
       </c>
       <c r="D51" s="8">
-        <v>73111</v>
+        <v>103420</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>66</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I51" s="17">
-        <v>214.583333334</v>
+        <v>257.5</v>
       </c>
       <c r="J51" s="1">
-        <v>1.0760000000000001</v>
+        <v>16.645</v>
       </c>
       <c r="K51" s="11">
         <f t="shared" si="1"/>
-        <v>230891.66666738401</v>
+        <v>4286087.5</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -2944,38 +2971,38 @@
     </row>
     <row r="52" spans="1:17" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C52" s="1">
-        <v>109409</v>
+        <v>59864</v>
       </c>
       <c r="D52" s="8">
-        <v>142404</v>
+        <v>73111</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>66</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I52" s="17">
-        <v>198.75</v>
+        <v>214.583333334</v>
       </c>
       <c r="J52" s="1">
-        <v>1.2889999999999999</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="K52" s="11">
         <f t="shared" si="1"/>
-        <v>256188.74999999997</v>
+        <v>230891.66666738401</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -2986,38 +3013,38 @@
     </row>
     <row r="53" spans="1:17" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C53" s="1">
-        <v>55461</v>
+        <v>109409</v>
       </c>
       <c r="D53" s="8">
-        <v>69389</v>
+        <v>142404</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>66</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I53" s="17">
-        <v>251.666666666</v>
+        <v>198.75</v>
       </c>
       <c r="J53" s="1">
-        <v>0.92800000000000005</v>
+        <v>1.2889999999999999</v>
       </c>
       <c r="K53" s="11">
         <f t="shared" si="1"/>
-        <v>233546.666666048</v>
+        <v>256188.74999999997</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -3028,38 +3055,38 @@
     </row>
     <row r="54" spans="1:17" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C54" s="1">
-        <v>55627</v>
+        <v>55461</v>
       </c>
       <c r="D54" s="8">
-        <v>69628</v>
+        <v>69389</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>66</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>139</v>
       </c>
       <c r="I54" s="17">
-        <v>227.5</v>
+        <v>251.666666666</v>
       </c>
       <c r="J54" s="1">
-        <v>0.90600000000000003</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="K54" s="11">
         <f t="shared" si="1"/>
-        <v>206115</v>
+        <v>233546.666666048</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -3070,38 +3097,38 @@
     </row>
     <row r="55" spans="1:17" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C55" s="1">
-        <v>55953</v>
+        <v>55627</v>
       </c>
       <c r="D55" s="8">
-        <v>70166</v>
+        <v>69628</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>66</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H55" s="1">
-        <v>227.777777778</v>
+        <v>141</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="I55" s="17">
-        <v>227.99</v>
+        <v>227.5</v>
       </c>
       <c r="J55" s="1">
-        <v>0.86699999999999999</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="K55" s="11">
         <f t="shared" si="1"/>
-        <v>197667.33</v>
+        <v>206115</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -3110,124 +3137,124 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
     </row>
-    <row r="56" spans="1:17" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="2" t="s">
-        <v>232</v>
+    <row r="56" spans="1:17" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="1">
+        <v>55953</v>
+      </c>
+      <c r="D56" s="8">
+        <v>70166</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H56" s="1">
+        <v>227.777777778</v>
+      </c>
+      <c r="I56" s="17">
+        <v>227.99</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="K56" s="11">
+        <f t="shared" si="1"/>
+        <v>197667.33</v>
+      </c>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+    </row>
+    <row r="57" spans="1:17" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C57" s="2">
         <v>56505</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D57" s="14">
         <v>71424</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F56" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G56" s="2" t="s">
+      <c r="F57" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I56" s="9">
+      <c r="I57" s="9">
         <v>220.833333334</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J57" s="2">
         <v>0.85499999999999998</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K57" s="3">
         <f t="shared" si="1"/>
         <v>188812.50000057</v>
       </c>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-    </row>
-    <row r="57" spans="1:17" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+    </row>
+    <row r="58" spans="1:17" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C58" s="1">
         <v>57764</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D58" s="8">
         <v>74408</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F57" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G57" s="1" t="s">
+      <c r="F58" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I58" s="17">
         <v>191.666666666</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J58" s="1">
         <v>0.999</v>
       </c>
-      <c r="K57" s="11">
+      <c r="K58" s="11">
         <f t="shared" si="1"/>
         <v>191474.99999933399</v>
-      </c>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-    </row>
-    <row r="58" spans="1:17" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C58" s="1">
-        <v>60150</v>
-      </c>
-      <c r="D58" s="8">
-        <v>79308</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I58" s="17">
-        <v>171.666666666</v>
-      </c>
-      <c r="J58" s="1">
-        <v>1.093</v>
-      </c>
-      <c r="K58" s="11">
-        <f t="shared" si="1"/>
-        <v>187631.66666593798</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -3238,38 +3265,38 @@
     </row>
     <row r="59" spans="1:17" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C59" s="1">
-        <v>55932</v>
+        <v>60150</v>
       </c>
       <c r="D59" s="8">
-        <v>70150</v>
+        <v>79308</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>66</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="I59" s="17">
-        <v>228.333333334</v>
+        <v>171.666666666</v>
       </c>
       <c r="J59" s="1">
-        <v>0.88600000000000001</v>
+        <v>1.093</v>
       </c>
       <c r="K59" s="11">
         <f t="shared" si="1"/>
-        <v>202303.33333392401</v>
+        <v>187631.66666593798</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -3280,38 +3307,38 @@
     </row>
     <row r="60" spans="1:17" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C60" s="1">
-        <v>55921</v>
+        <v>55932</v>
       </c>
       <c r="D60" s="8">
-        <v>70134</v>
+        <v>70150</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>66</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>139</v>
       </c>
       <c r="I60" s="17">
-        <v>227.083333334</v>
+        <v>228.333333334</v>
       </c>
       <c r="J60" s="1">
-        <v>0.94899999999999995</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="K60" s="11">
         <f t="shared" si="1"/>
-        <v>215502.083333966</v>
+        <v>202303.33333392401</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -3320,104 +3347,106 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
     </row>
-    <row r="64" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="2" t="s">
+    <row r="61" spans="1:17" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C61" s="1">
+        <v>55921</v>
+      </c>
+      <c r="D61" s="8">
+        <v>70134</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I61" s="17">
+        <v>227.083333334</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="K61" s="11">
+        <f t="shared" si="1"/>
+        <v>215502.083333966</v>
+      </c>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+    </row>
+    <row r="65" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B65" s="2">
         <v>9</v>
       </c>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="11"/>
-    </row>
-    <row r="65" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="4" t="s">
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="11"/>
+    </row>
+    <row r="66" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A66" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B66" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C66" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D66" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E66" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="F66" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="G66" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H65" s="6" t="s">
+      <c r="H66" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I65" s="15" t="s">
+      <c r="I66" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J65" s="7" t="s">
+      <c r="J66" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K65" s="16" t="s">
+      <c r="K66" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="13" t="s">
+    <row r="67" spans="1:17" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A67" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C67" s="1">
         <v>56864</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D67" s="8">
         <v>70329</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I66" s="17">
-        <v>397.5</v>
-      </c>
-      <c r="J66" s="1">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="K66" s="11">
-        <f t="shared" ref="K66:K74" si="2">MMULT(I66,J66)*1000</f>
-        <v>106530</v>
-      </c>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-    </row>
-    <row r="67" spans="1:17" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="1">
-        <v>56950</v>
-      </c>
-      <c r="D67" s="8">
-        <v>70433</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>66</v>
@@ -3429,14 +3458,14 @@
         <v>160</v>
       </c>
       <c r="I67" s="17">
-        <v>381.25</v>
+        <v>397.5</v>
       </c>
       <c r="J67" s="1">
-        <v>0.25800000000000001</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="K67" s="11">
-        <f t="shared" si="2"/>
-        <v>98362.5</v>
+        <f t="shared" ref="K67:K75" si="2">MMULT(I67,J67)*1000</f>
+        <v>106530</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -3447,17 +3476,17 @@
     </row>
     <row r="68" spans="1:17" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="1">
-        <v>56972</v>
+        <v>56950</v>
       </c>
       <c r="D68" s="8">
-        <v>70453</v>
+        <v>70433</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F68" s="8" t="s">
         <v>66</v>
@@ -3469,14 +3498,14 @@
         <v>160</v>
       </c>
       <c r="I68" s="17">
-        <v>370.83333333299998</v>
+        <v>381.25</v>
       </c>
       <c r="J68" s="1">
-        <v>0.24299999999999999</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="K68" s="11">
         <f t="shared" si="2"/>
-        <v>90112.499999918989</v>
+        <v>98362.5</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
@@ -3485,120 +3514,118 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" spans="1:17" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:17" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B69" s="13"/>
+      <c r="C69" s="1">
+        <v>56972</v>
+      </c>
+      <c r="D69" s="8">
+        <v>70453</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I69" s="17">
+        <v>370.83333333299998</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="K69" s="11">
+        <f t="shared" si="2"/>
+        <v>90112.499999918989</v>
+      </c>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+    </row>
+    <row r="70" spans="1:17" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="2">
+      <c r="B70" s="19"/>
+      <c r="C70" s="2">
         <v>56949</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D70" s="14">
         <v>70437</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F69" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G69" s="2" t="s">
+      <c r="F70" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H70" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I69" s="9">
+      <c r="I70" s="9">
         <v>405</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J70" s="2">
         <v>0.22500000000000001</v>
       </c>
-      <c r="K69" s="3">
+      <c r="K70" s="3">
         <f t="shared" si="2"/>
         <v>91125</v>
       </c>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-    </row>
-    <row r="70" spans="1:17" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A70" s="1" t="s">
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+    </row>
+    <row r="71" spans="1:17" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="1">
+      <c r="B71" s="13"/>
+      <c r="C71" s="1">
         <v>56951</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D71" s="8">
         <v>70444</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F70" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G70" s="1" t="s">
+      <c r="F71" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="H71" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I70" s="17">
+      <c r="I71" s="17">
         <v>395</v>
       </c>
-      <c r="J70" s="1">
+      <c r="J71" s="1">
         <v>0.23100000000000001</v>
       </c>
-      <c r="K70" s="11">
+      <c r="K71" s="11">
         <f t="shared" si="2"/>
         <v>91245</v>
-      </c>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="11"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-    </row>
-    <row r="71" spans="1:17" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A71" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C71" s="1">
-        <v>56922</v>
-      </c>
-      <c r="D71" s="8">
-        <v>70439</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I71" s="17">
-        <v>396.875</v>
-      </c>
-      <c r="J71" s="1">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="K71" s="11">
-        <f>MMULT(I71,J71)*1000</f>
-        <v>95646.875</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -3609,38 +3636,38 @@
     </row>
     <row r="72" spans="1:17" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C72" s="1">
-        <v>56928</v>
+        <v>56922</v>
       </c>
       <c r="D72" s="8">
-        <v>70444</v>
+        <v>70439</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F72" s="8" t="s">
         <v>66</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>173</v>
       </c>
       <c r="I72" s="17">
-        <v>371.875</v>
+        <v>396.875</v>
       </c>
       <c r="J72" s="1">
-        <v>0.25</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="K72" s="11">
         <f>MMULT(I72,J72)*1000</f>
-        <v>92968.75</v>
+        <v>95646.875</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -3651,38 +3678,38 @@
     </row>
     <row r="73" spans="1:17" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="C73" s="1">
-        <v>57051</v>
+        <v>56928</v>
       </c>
       <c r="D73" s="8">
-        <v>69497</v>
+        <v>70444</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>66</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="I73" s="17">
-        <v>362.5</v>
+        <v>371.875</v>
       </c>
       <c r="J73" s="1">
-        <v>2.887</v>
+        <v>0.25</v>
       </c>
       <c r="K73" s="11">
-        <f t="shared" si="2"/>
-        <v>1046537.4999999999</v>
+        <f>MMULT(I73,J73)*1000</f>
+        <v>92968.75</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
@@ -3693,38 +3720,38 @@
     </row>
     <row r="74" spans="1:17" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C74" s="1">
-        <v>59893</v>
+        <v>57051</v>
       </c>
       <c r="D74" s="8">
-        <v>75982</v>
+        <v>69497</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F74" s="8" t="s">
         <v>66</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="I74" s="17">
-        <v>312.5</v>
+        <v>362.5</v>
       </c>
       <c r="J74" s="1">
-        <v>0.622</v>
+        <v>2.887</v>
       </c>
       <c r="K74" s="11">
         <f t="shared" si="2"/>
-        <v>194375</v>
+        <v>1046537.4999999999</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -3732,6 +3759,48 @@
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
+    </row>
+    <row r="75" spans="1:17" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C75" s="1">
+        <v>59893</v>
+      </c>
+      <c r="D75" s="8">
+        <v>75982</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I75" s="17">
+        <v>312.5</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0.622</v>
+      </c>
+      <c r="K75" s="11">
+        <f t="shared" si="2"/>
+        <v>194375</v>
+      </c>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
